--- a/Test_Suite/store_edit.xlsx
+++ b/Test_Suite/store_edit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A77DEE5-7A9D-4F6D-A966-4E7BC577F0A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07069871-09EC-422C-A98A-5789F8538400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,8 +76,14 @@
     <t>EasyshellLib.CommonUtils.Reboot()</t>
   </si>
   <si>
+    <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
+  </si>
+  <si>
+    <t>Shell_StoreFront().edit('editStore', 'standardStore')</t>
+  </si>
+  <si>
     <r>
-      <t>Shell_StoreFront().check(</t>
+      <t>Shell_StoreFront().check_connection(</t>
     </r>
     <r>
       <rPr>
@@ -98,12 +104,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
-  </si>
-  <si>
-    <t>Shell_StoreFront().edit('editStore', 'standardStore')</t>
   </si>
 </sst>
 </file>
@@ -457,16 +457,16 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="1"/>
+    <col min="4" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -515,12 +515,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
